--- a/import_fld/import.xlsx
+++ b/import_fld/import.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\document_filler\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Serge\PycharmProjects\docxy\import_fld\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -385,7 +385,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:C7"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/import_fld/import.xlsx
+++ b/import_fld/import.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Serge\PycharmProjects\docxy\import_fld\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\doxy\dist\import_fld\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,45 +24,153 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
-  <si>
-    <t>bmw</t>
-  </si>
-  <si>
-    <t>color</t>
-  </si>
-  <si>
-    <t>body</t>
-  </si>
-  <si>
-    <t>audi</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>flat</t>
-  </si>
-  <si>
-    <t>brown</t>
-  </si>
-  <si>
-    <t>volumous</t>
-  </si>
-  <si>
-    <t>wing</t>
-  </si>
-  <si>
-    <t>brisk</t>
-  </si>
-  <si>
-    <t>fancy</t>
-  </si>
-  <si>
-    <t>merecedes</t>
-  </si>
-  <si>
-    <t>volswagen</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="49">
+  <si>
+    <t>Tesla</t>
+  </si>
+  <si>
+    <t>full name</t>
+  </si>
+  <si>
+    <t>Elon Musk</t>
+  </si>
+  <si>
+    <t>adress</t>
+  </si>
+  <si>
+    <t>3500 Deer Creek Rd, Palo Alto, CA 94304, USA</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>info@tesla.com</t>
+  </si>
+  <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>JPMorgan Chase</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>Palo Alto</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Tim Cook</t>
+  </si>
+  <si>
+    <t>1 Apple Park Way, Cupertino, CA 95014, USA</t>
+  </si>
+  <si>
+    <t>contact@apple.com</t>
+  </si>
+  <si>
+    <t>Bank of America</t>
+  </si>
+  <si>
+    <t>Cupertino</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>Sundar Pichai</t>
+  </si>
+  <si>
+    <t>1600 Amphitheatre Parkway, Mountain View, CA 94043, USA</t>
+  </si>
+  <si>
+    <t>support@google.com</t>
+  </si>
+  <si>
+    <t>Wells Fargo</t>
+  </si>
+  <si>
+    <t>Mountain View</t>
+  </si>
+  <si>
+    <t>Microsoft</t>
+  </si>
+  <si>
+    <t>Satya Nadella</t>
+  </si>
+  <si>
+    <t>1 Microsoft Way, Redmond, WA 98052, USA</t>
+  </si>
+  <si>
+    <t>info@microsoft.com</t>
+  </si>
+  <si>
+    <t>Citibank</t>
+  </si>
+  <si>
+    <t>Redmond</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Jeff Bezos</t>
+  </si>
+  <si>
+    <t>410 Terry Ave N, Seattle, WA 98109, USA</t>
+  </si>
+  <si>
+    <t>support@amazon.com</t>
+  </si>
+  <si>
+    <t>Chase Bank</t>
+  </si>
+  <si>
+    <t>Seattle</t>
+  </si>
+  <si>
+    <t>Facebook</t>
+  </si>
+  <si>
+    <t>Mark Zuckerberg</t>
+  </si>
+  <si>
+    <t>1 Hacker Way, Menlo Park, CA 94025, USA</t>
+  </si>
+  <si>
+    <t>info@facebook.com</t>
+  </si>
+  <si>
+    <t>HSBC</t>
+  </si>
+  <si>
+    <t>Menlo Park</t>
+  </si>
+  <si>
+    <t>Netflix</t>
+  </si>
+  <si>
+    <t>Reed Hastings</t>
+  </si>
+  <si>
+    <t>100 Winchester Circle, Los Gatos, CA 95032, USA</t>
+  </si>
+  <si>
+    <t>contact@netflix.com</t>
+  </si>
+  <si>
+    <t>Goldman Sachs</t>
+  </si>
+  <si>
+    <t>Los Gatos</t>
   </si>
 </sst>
 </file>
@@ -382,126 +490,524 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection sqref="A1:C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.28515625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2"/>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3"/>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4"/>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5"/>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6"/>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8"/>
+      <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9"/>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10"/>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11"/>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12"/>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14"/>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15"/>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16"/>
+      <c r="B16" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17"/>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18"/>
+      <c r="B18" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20"/>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21"/>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22"/>
+      <c r="B22" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23"/>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24"/>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="1" t="s">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26"/>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27"/>
+      <c r="B27" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="C27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28"/>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29"/>
+      <c r="B29" t="s">
         <v>9</v>
       </c>
+      <c r="C29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30"/>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32"/>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33"/>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34"/>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35"/>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36"/>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38"/>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39"/>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40"/>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41"/>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42"/>
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
